--- a/ЗИиНИС/ЛР2/frequencies.xlsx
+++ b/ЗИиНИС/ЛР2/frequencies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Университет\3 курс\6 сем\ЗИиНИС\ЛР2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABE2A0B-821F-4EBF-AADA-8D9A36267B48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96777C6F-F572-4B64-8694-8B9C1E38C9C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9408" yWindow="0" windowWidth="13632" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="39">
-  <si>
-    <t>зашифрованный Порты</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="38">
   <si>
     <t>буквы</t>
   </si>
@@ -257,474 +254,6 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>частота</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$4:$A$36</c:f>
-              <c:strCache>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>А</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Б</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>В</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Г</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Д</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Е</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ё</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Ж</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>З</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>И</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Й</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>К</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Л</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>М</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Н</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>О</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>П</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Р</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>С</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Т</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>У</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Ф</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Х</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Ц</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Ч</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Ш</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Щ</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Ъ</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Ы</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Ь</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Э</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Ю</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Я</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$4:$B$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>379</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>591</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>721</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>596</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>276</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1093</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>596</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>306</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>896</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>783</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>456</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>263</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>606</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1167</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1FA3-4C51-9278-77C5084B1CB6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1372457279"/>
-        <c:axId val="1164264975"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1372457279"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-BY"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1164264975"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1164264975"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-BY"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1372457279"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-BY"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-BY"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
               <c:f>Sheet1!$Z$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1137,7 +666,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -1605,7 +1134,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -2193,46 +1722,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3742,547 +3231,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>16391</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>3750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>280161</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>109258</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86C7DDFE-00D4-45B8-8C3D-DD1554275C34}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
@@ -4313,7 +3263,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4349,7 +3299,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4385,7 +3335,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4657,907 +3607,700 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL36"/>
+  <dimension ref="M1:AL36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="46" workbookViewId="0">
-      <selection activeCell="V73" sqref="V73"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="46" workbookViewId="0">
+      <selection activeCell="X39" sqref="X39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="13:38" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="13:38" x14ac:dyDescent="0.3">
+      <c r="M3" t="s">
         <v>0</v>
       </c>
-      <c r="M1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>38</v>
+      <c r="N3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="13:38" x14ac:dyDescent="0.3">
+      <c r="M4" t="s">
         <v>2</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>379</v>
-      </c>
-      <c r="M4" t="s">
-        <v>3</v>
       </c>
       <c r="N4">
         <v>1093</v>
       </c>
       <c r="Y4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z4">
         <v>896</v>
       </c>
       <c r="AK4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL4">
         <v>919</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>591</v>
-      </c>
+    <row r="5" spans="13:38" x14ac:dyDescent="0.3">
       <c r="M5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N5">
         <v>170</v>
       </c>
       <c r="Y5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AK5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL5">
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>721</v>
-      </c>
+    <row r="6" spans="13:38" x14ac:dyDescent="0.3">
       <c r="M6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6">
         <v>596</v>
       </c>
       <c r="Y6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z6">
         <v>105</v>
       </c>
       <c r="AK6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL6">
         <v>596</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>596</v>
-      </c>
+    <row r="7" spans="13:38" x14ac:dyDescent="0.3">
       <c r="M7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N7">
         <v>260</v>
       </c>
       <c r="Y7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z7">
         <v>200</v>
       </c>
       <c r="AK7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL7">
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>276</v>
-      </c>
+    <row r="8" spans="13:38" x14ac:dyDescent="0.3">
       <c r="M8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N8">
         <v>306</v>
       </c>
       <c r="Y8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z8">
         <v>919</v>
       </c>
       <c r="AK8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL8">
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>26</v>
-      </c>
+    <row r="9" spans="13:38" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N9">
         <v>896</v>
       </c>
       <c r="Y9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z9">
         <v>783</v>
       </c>
       <c r="AK9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL9">
         <v>896</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>167</v>
-      </c>
+    <row r="10" spans="13:38" x14ac:dyDescent="0.3">
       <c r="M10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z10">
         <v>153</v>
       </c>
       <c r="AK10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>18</v>
-      </c>
+    <row r="11" spans="13:38" x14ac:dyDescent="0.3">
       <c r="M11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N11">
         <v>105</v>
       </c>
       <c r="Y11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z11">
         <v>596</v>
       </c>
       <c r="AK11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL11">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>120</v>
-      </c>
+    <row r="12" spans="13:38" x14ac:dyDescent="0.3">
       <c r="M12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N12">
         <v>200</v>
       </c>
       <c r="Y12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z12">
         <v>430</v>
       </c>
       <c r="AK12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL12">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>93</v>
-      </c>
+    <row r="13" spans="13:38" x14ac:dyDescent="0.3">
       <c r="M13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N13">
         <v>783</v>
       </c>
       <c r="Y13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z13">
         <v>260</v>
       </c>
       <c r="AK13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL13">
         <v>783</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>34</v>
-      </c>
+    <row r="14" spans="13:38" x14ac:dyDescent="0.3">
       <c r="M14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N14">
         <v>153</v>
       </c>
       <c r="Y14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z14">
         <v>456</v>
       </c>
       <c r="AK14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL14">
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
+    <row r="15" spans="13:38" x14ac:dyDescent="0.3">
       <c r="M15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N15">
         <v>430</v>
       </c>
       <c r="Y15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z15">
         <v>306</v>
       </c>
       <c r="AK15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL15">
         <v>430</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>246</v>
-      </c>
+    <row r="16" spans="13:38" x14ac:dyDescent="0.3">
       <c r="M16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N16">
         <v>456</v>
       </c>
       <c r="Y16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z16">
         <v>263</v>
       </c>
       <c r="AK16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL16">
         <v>456</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>144</v>
-      </c>
+    <row r="17" spans="13:38" x14ac:dyDescent="0.3">
       <c r="M17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N17">
         <v>263</v>
       </c>
       <c r="Y17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z17">
         <v>606</v>
       </c>
       <c r="AK17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL17">
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>26</v>
-      </c>
+    <row r="18" spans="13:38" x14ac:dyDescent="0.3">
       <c r="M18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N18" s="1">
         <v>606</v>
       </c>
       <c r="Y18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z18">
         <v>1167</v>
       </c>
       <c r="AK18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL18">
         <v>606</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>42</v>
-      </c>
+    <row r="19" spans="13:38" x14ac:dyDescent="0.3">
       <c r="M19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N19">
         <v>1167</v>
       </c>
       <c r="Y19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z19">
         <v>379</v>
       </c>
       <c r="AK19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL19">
         <v>1167</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1093</v>
-      </c>
+    <row r="20" spans="13:38" x14ac:dyDescent="0.3">
       <c r="M20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N20">
         <v>379</v>
       </c>
       <c r="Y20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z20">
         <v>591</v>
       </c>
       <c r="AK20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL20">
         <v>379</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>170</v>
-      </c>
+    <row r="21" spans="13:38" x14ac:dyDescent="0.3">
       <c r="M21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N21">
         <v>591</v>
       </c>
       <c r="Y21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z21">
         <v>721</v>
       </c>
       <c r="AK21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL21">
         <v>591</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>596</v>
-      </c>
+    <row r="22" spans="13:38" x14ac:dyDescent="0.3">
       <c r="M22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>721</v>
       </c>
       <c r="Y22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z22">
         <v>596</v>
       </c>
       <c r="AK22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL22">
         <v>721</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>260</v>
-      </c>
+    <row r="23" spans="13:38" x14ac:dyDescent="0.3">
       <c r="M23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N23">
         <v>596</v>
       </c>
       <c r="Y23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z23">
         <v>276</v>
       </c>
       <c r="AK23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL23">
         <v>596</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>306</v>
-      </c>
+    <row r="24" spans="13:38" x14ac:dyDescent="0.3">
       <c r="M24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N24">
         <v>276</v>
       </c>
       <c r="Y24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z24">
         <v>170</v>
       </c>
       <c r="AK24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL24">
         <v>276</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>896</v>
-      </c>
+    <row r="25" spans="13:38" x14ac:dyDescent="0.3">
       <c r="M25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N25">
         <v>26</v>
       </c>
       <c r="Y25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z25">
         <v>26</v>
       </c>
       <c r="AK25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL25">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
+    <row r="26" spans="13:38" x14ac:dyDescent="0.3">
       <c r="M26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N26">
         <v>167</v>
       </c>
       <c r="Y26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z26">
         <v>167</v>
       </c>
       <c r="AK26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL26">
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>105</v>
-      </c>
+    <row r="27" spans="13:38" x14ac:dyDescent="0.3">
       <c r="M27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N27">
         <v>18</v>
       </c>
       <c r="Y27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z27">
         <v>18</v>
       </c>
       <c r="AK27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL27">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>200</v>
-      </c>
+    <row r="28" spans="13:38" x14ac:dyDescent="0.3">
       <c r="M28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>120</v>
       </c>
       <c r="Y28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z28">
         <v>120</v>
       </c>
       <c r="AK28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL28">
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>783</v>
-      </c>
+    <row r="29" spans="13:38" x14ac:dyDescent="0.3">
       <c r="M29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N29">
         <v>93</v>
       </c>
       <c r="Y29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z29">
         <v>93</v>
       </c>
       <c r="AK29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL29">
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>153</v>
-      </c>
+    <row r="30" spans="13:38" x14ac:dyDescent="0.3">
       <c r="M30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N30">
         <v>34</v>
       </c>
       <c r="Y30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z30">
         <v>34</v>
       </c>
       <c r="AK30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL30">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>430</v>
-      </c>
+    <row r="31" spans="13:38" x14ac:dyDescent="0.3">
       <c r="M31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="Y31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z31">
         <v>0</v>
       </c>
       <c r="AK31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>456</v>
-      </c>
+    <row r="32" spans="13:38" x14ac:dyDescent="0.3">
       <c r="M32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>246</v>
       </c>
       <c r="Y32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z32">
         <v>246</v>
       </c>
       <c r="AK32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AL32">
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>263</v>
-      </c>
+    <row r="33" spans="13:38" x14ac:dyDescent="0.3">
       <c r="M33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N33">
         <v>144</v>
       </c>
       <c r="Y33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z33">
         <v>144</v>
       </c>
       <c r="AK33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AL33">
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>606</v>
-      </c>
+    <row r="34" spans="13:38" x14ac:dyDescent="0.3">
       <c r="M34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N34">
         <v>26</v>
       </c>
       <c r="Y34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z34">
         <v>26</v>
       </c>
       <c r="AK34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AL34">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>1167</v>
-      </c>
+    <row r="35" spans="13:38" x14ac:dyDescent="0.3">
       <c r="M35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N35">
         <v>42</v>
       </c>
       <c r="Y35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Z35">
         <v>42</v>
       </c>
       <c r="AK35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AL35">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
+    <row r="36" spans="13:38" x14ac:dyDescent="0.3">
       <c r="M36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="Y36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z36">
         <v>174</v>
       </c>
       <c r="AK36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AL36">
         <v>174</v>
